--- a/02 CLanguage/000 3格式化占位符 格式化输出字符串会自动解引用.xlsx
+++ b/02 CLanguage/000 3格式化占位符 格式化输出字符串会自动解引用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02 CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E93213B-2400-4A45-BE8F-EE5C183EF4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5E7787-318F-4BFE-AC0C-3993427FFD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1020B982-862A-415B-B86C-29CB6792D727}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1020B982-862A-415B-B86C-29CB6792D727}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -569,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A519183-23BB-4199-B214-7B132AF25D49}">
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -946,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE86926-2FC5-43B8-9297-31C9AD69F7F4}">
   <dimension ref="B4:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
